--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T15:10:33+00:00</t>
+    <t>2022-05-26T16:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,7 +240,74 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BEAMPPModel.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BEAMPPModel.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BEAMPPModel.identifier</t>
@@ -259,9 +326,6 @@
     <t>BEAMPPModel.ingredient</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -308,10 +372,6 @@
   </si>
   <si>
     <t>BEAMPPModel.brandName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Brand name of the product</t>
@@ -657,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -668,7 +728,7 @@
   <cols>
     <col min="1" max="1" width="43.64453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -693,7 +753,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="43.64453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -905,18 +965,18 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -927,7 +987,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -939,13 +999,13 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -996,13 +1056,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1011,20 +1071,20 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>74</v>
@@ -1039,15 +1099,17 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>72</v>
@@ -1084,22 +1146,22 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1108,15 +1170,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1124,10 +1186,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1139,13 +1201,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1196,13 +1258,13 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1216,7 +1278,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1224,10 +1286,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1239,13 +1301,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1296,13 +1358,13 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1316,7 +1378,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1324,10 +1386,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1339,13 +1401,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1396,13 +1458,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1416,7 +1478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1424,10 +1486,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1439,13 +1501,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1496,13 +1558,13 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1516,7 +1578,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1524,10 +1586,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1539,13 +1601,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1596,13 +1658,13 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1616,7 +1678,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1624,10 +1686,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1639,13 +1701,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1696,13 +1758,13 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1716,7 +1778,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1724,10 +1786,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1739,13 +1801,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1796,13 +1858,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1816,7 +1878,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1824,28 +1886,28 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1896,13 +1958,13 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -1916,7 +1978,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1924,10 +1986,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -1939,13 +2001,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1996,13 +2058,13 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2016,7 +2078,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2024,10 +2086,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2039,13 +2101,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2096,13 +2158,13 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2116,7 +2178,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2124,10 +2186,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2139,13 +2201,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2196,21 +2258,221 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="F16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-20T14:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEAMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEAMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEAMPPModel</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEAMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-06-28T12:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:41:32+00:00</t>
+    <t>2022-06-28T12:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:44:43+00:00</t>
+    <t>2022-08-13T20:35:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -727,41 +727,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.64453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="43.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEAMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEAMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T20:35:38+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEAMPPModel</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEAMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEAMPPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEAMPPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:31:26+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -968,15 +964,15 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -987,25 +983,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1056,13 +1052,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1071,16 +1067,16 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1099,16 +1095,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1146,19 +1142,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1170,15 +1166,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1201,13 +1197,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1258,7 +1254,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1278,7 +1274,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>74</v>
@@ -1301,13 +1297,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1358,10 +1354,10 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1378,7 +1374,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1386,10 +1382,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1401,13 +1397,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1458,13 +1454,13 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1478,7 +1474,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1486,10 +1482,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1501,13 +1497,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1558,13 +1554,13 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1578,7 +1574,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1586,10 +1582,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1601,13 +1597,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1658,13 +1654,13 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1678,7 +1674,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1686,7 +1682,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>74</v>
@@ -1701,13 +1697,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1758,10 +1754,10 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1778,7 +1774,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1786,10 +1782,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1801,13 +1797,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1858,13 +1854,13 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1878,7 +1874,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1886,28 +1882,28 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1958,13 +1954,13 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -1978,7 +1974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1986,10 +1982,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2001,13 +1997,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2058,13 +2054,13 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2078,7 +2074,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2086,10 +2082,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2101,13 +2097,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2158,13 +2154,13 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2178,7 +2174,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2186,10 +2182,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2201,13 +2197,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2258,13 +2254,13 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2278,7 +2274,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2289,7 +2285,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2301,13 +2297,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2358,13 +2354,13 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2378,7 +2374,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2389,7 +2385,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2401,13 +2397,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2458,13 +2454,13 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEAMPPModel.xlsx
+++ b/StructureDefinition-BEAMPPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
